--- a/Entrada/RPI/RPI_ACS_20231101_Completo.xlsx
+++ b/Entrada/RPI/RPI_ACS_20231101_Completo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elcio\Dev\RegistroANS\Entrada\RPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elcio\Dev\RegistroANS\Entrada\rpi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11272BC0-D473-45C7-ADCB-19A485349447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E97E62-E14B-4C5C-9DA8-E1427D67F500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8DA99CEB-5B58-452C-A695-4589F3A76323}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Orientações" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados!$A$1:$Z$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados!$A$1:$W$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="214">
   <si>
     <t>registroANS</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>codigoPlanoOperadoraVinculacao</t>
-  </si>
-  <si>
-    <t>360244</t>
   </si>
   <si>
     <t>02864364000145</t>
@@ -765,201 +762,6 @@
     <t>ASSOCIACAO CASA DA ESPERANCA</t>
   </si>
   <si>
-    <t>360245</t>
-  </si>
-  <si>
-    <t>360246</t>
-  </si>
-  <si>
-    <t>360247</t>
-  </si>
-  <si>
-    <t>360248</t>
-  </si>
-  <si>
-    <t>360249</t>
-  </si>
-  <si>
-    <t>360250</t>
-  </si>
-  <si>
-    <t>360251</t>
-  </si>
-  <si>
-    <t>360252</t>
-  </si>
-  <si>
-    <t>360253</t>
-  </si>
-  <si>
-    <t>360254</t>
-  </si>
-  <si>
-    <t>360255</t>
-  </si>
-  <si>
-    <t>360256</t>
-  </si>
-  <si>
-    <t>360257</t>
-  </si>
-  <si>
-    <t>360258</t>
-  </si>
-  <si>
-    <t>360259</t>
-  </si>
-  <si>
-    <t>360260</t>
-  </si>
-  <si>
-    <t>360261</t>
-  </si>
-  <si>
-    <t>360262</t>
-  </si>
-  <si>
-    <t>360263</t>
-  </si>
-  <si>
-    <t>360264</t>
-  </si>
-  <si>
-    <t>360265</t>
-  </si>
-  <si>
-    <t>360266</t>
-  </si>
-  <si>
-    <t>360267</t>
-  </si>
-  <si>
-    <t>360268</t>
-  </si>
-  <si>
-    <t>360269</t>
-  </si>
-  <si>
-    <t>360270</t>
-  </si>
-  <si>
-    <t>360271</t>
-  </si>
-  <si>
-    <t>360272</t>
-  </si>
-  <si>
-    <t>360273</t>
-  </si>
-  <si>
-    <t>360274</t>
-  </si>
-  <si>
-    <t>360275</t>
-  </si>
-  <si>
-    <t>360276</t>
-  </si>
-  <si>
-    <t>360277</t>
-  </si>
-  <si>
-    <t>360278</t>
-  </si>
-  <si>
-    <t>360279</t>
-  </si>
-  <si>
-    <t>360280</t>
-  </si>
-  <si>
-    <t>360281</t>
-  </si>
-  <si>
-    <t>360282</t>
-  </si>
-  <si>
-    <t>360283</t>
-  </si>
-  <si>
-    <t>360284</t>
-  </si>
-  <si>
-    <t>360285</t>
-  </si>
-  <si>
-    <t>360286</t>
-  </si>
-  <si>
-    <t>360287</t>
-  </si>
-  <si>
-    <t>360288</t>
-  </si>
-  <si>
-    <t>360289</t>
-  </si>
-  <si>
-    <t>360290</t>
-  </si>
-  <si>
-    <t>360291</t>
-  </si>
-  <si>
-    <t>360292</t>
-  </si>
-  <si>
-    <t>360293</t>
-  </si>
-  <si>
-    <t>360294</t>
-  </si>
-  <si>
-    <t>360295</t>
-  </si>
-  <si>
-    <t>360296</t>
-  </si>
-  <si>
-    <t>360297</t>
-  </si>
-  <si>
-    <t>360298</t>
-  </si>
-  <si>
-    <t>360299</t>
-  </si>
-  <si>
-    <t>360300</t>
-  </si>
-  <si>
-    <t>360301</t>
-  </si>
-  <si>
-    <t>360302</t>
-  </si>
-  <si>
-    <t>360303</t>
-  </si>
-  <si>
-    <t>360304</t>
-  </si>
-  <si>
-    <t>360305</t>
-  </si>
-  <si>
-    <t>360306</t>
-  </si>
-  <si>
-    <t>360307</t>
-  </si>
-  <si>
-    <t>360308</t>
-  </si>
-  <si>
-    <t>360309</t>
-  </si>
-  <si>
     <t>Existentes</t>
   </si>
   <si>
@@ -967,6 +769,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Existente</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>Enviado</t>
   </si>
 </sst>
 </file>
@@ -988,7 +799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,6 +818,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1020,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1031,25 +854,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1104,14 +915,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28BCDC24-1A7F-4265-88C5-9DC259439B61}" name="Tabela2" displayName="Tabela2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28BCDC24-1A7F-4265-88C5-9DC259439B61}" name="Tabela2" displayName="Tabela2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:E20" xr:uid="{28BCDC24-1A7F-4265-88C5-9DC259439B61}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B1B61F63-B936-4DE6-8A54-C5E456807897}" name="Título" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A14D4E89-8408-4C7C-8EF5-5CB49A14F2F9}" name="Descrição" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{2A40BACB-4751-4A5F-8DB7-16B77AA896A8}" name="Tamanho" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{768AED3C-8818-40AC-8468-0A6AA5FD02D7}" name="Tipo de dado" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{5D92C2D0-156C-41C6-BD8F-463FCC29C595}" name="Regra de preenchimento" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B1B61F63-B936-4DE6-8A54-C5E456807897}" name="Título" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A14D4E89-8408-4C7C-8EF5-5CB49A14F2F9}" name="Descrição" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2A40BACB-4751-4A5F-8DB7-16B77AA896A8}" name="Tamanho" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{768AED3C-8818-40AC-8468-0A6AA5FD02D7}" name="Tipo de dado" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5D92C2D0-156C-41C6-BD8F-463FCC29C595}" name="Regra de preenchimento" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1414,41 +1225,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDB6F46-9F3A-4038-9054-3BC14B17DE58}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.5546875" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.44140625" customWidth="1"/>
-    <col min="25" max="26" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1507,48 +1315,48 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>223</v>
+        <v>210</v>
+      </c>
+      <c r="V1" t="s">
+        <v>208</v>
+      </c>
+      <c r="W1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>360244</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>3295532</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>3548500</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1">
         <v>42887</v>
@@ -1557,63 +1365,54 @@
         <v>42887</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="str">
-        <f>_xlfn.IFNA(V2,_xlfn.IFNA(W2,""))</f>
-        <v/>
-      </c>
-      <c r="V2" t="e">
-        <f t="shared" ref="V2:V33" si="0">IF(VLOOKUP(F2,$Y$2:$Y$28,1,0)&lt;&gt;"#N/D","Existente")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W2" t="e">
-        <f t="shared" ref="W2:W33" si="1">IF(VLOOKUP(F2,$Z$2:$Z$28,1,0)&lt;&gt;"#N/D","Erro")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>259</v>
+        <v>25</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>360244</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3">
         <v>3355284</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>3548500</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1">
         <v>42095</v>
@@ -1622,63 +1421,54 @@
         <v>42095</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T66" si="2">_xlfn.IFNA(V3,_xlfn.IFNA(W3,""))</f>
-        <v>Existente</v>
-      </c>
-      <c r="V3" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W3" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>256</v>
+        <v>25</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>360244</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4">
         <v>3245640</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>3548500</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1">
         <v>42887</v>
@@ -1687,63 +1477,54 @@
         <v>42887</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W4" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>212</v>
+        <v>25</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>360244</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>5140080</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>3548500</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1">
         <v>39539</v>
@@ -1752,63 +1533,54 @@
         <v>39539</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>258</v>
+        <v>25</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>360244</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6">
         <v>3790002</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6">
         <v>3548500</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1">
         <v>39569</v>
@@ -1817,63 +1589,54 @@
         <v>39569</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W6" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>272</v>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>360244</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7">
         <v>3573060</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <v>3548500</v>
       </c>
       <c r="J7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1">
         <v>42842</v>
@@ -1882,60 +1645,51 @@
         <v>42842</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V7" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W7" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>241</v>
+        <v>25</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>360244</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8">
         <v>2036436</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>3518701</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1">
         <v>40938</v>
@@ -1944,60 +1698,51 @@
         <v>40938</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V8" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W8" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="6" t="s">
         <v>213</v>
       </c>
+      <c r="V8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>360244</v>
+      </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>2034948</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>3518701</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1">
         <v>40945</v>
@@ -2006,60 +1751,51 @@
         <v>40945</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V9" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W9" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>253</v>
+        <v>25</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>360244</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10">
         <v>3390632</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>3548500</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1">
         <v>41183</v>
@@ -2068,60 +1804,51 @@
         <v>41183</v>
       </c>
       <c r="P10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W10" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>263</v>
+        <v>25</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>360244</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11">
         <v>3173097</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11">
         <v>3537602</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1">
         <v>39614</v>
@@ -2130,60 +1857,51 @@
         <v>39614</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V11" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W11" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>249</v>
+        <v>25</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>360244</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12">
         <v>3612236</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>3548500</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1">
         <v>38498</v>
@@ -2192,60 +1910,51 @@
         <v>38498</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V12" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>210</v>
+        <v>25</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>360244</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>3935604</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>3548500</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1">
         <v>42887</v>
@@ -2254,60 +1963,51 @@
         <v>42887</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V13" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W13" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>220</v>
+        <v>25</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>360244</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3077888</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14">
         <v>3531100</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1">
         <v>41755</v>
@@ -2316,60 +2016,51 @@
         <v>41755</v>
       </c>
       <c r="P14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W14" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>248</v>
+        <v>25</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>360244</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15">
         <v>3530302</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15">
         <v>3548500</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1">
         <v>39804</v>
@@ -2378,60 +2069,51 @@
         <v>39804</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V15" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W15" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>255</v>
+        <v>25</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>360244</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16">
         <v>5714206</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>3548500</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1">
         <v>38280</v>
@@ -2440,60 +2122,51 @@
         <v>38280</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>26</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V16" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W16" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>271</v>
+        <v>25</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>360244</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G17">
         <v>5482712</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17">
         <v>3551009</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1">
         <v>44378</v>
@@ -2502,60 +2175,51 @@
         <v>44378</v>
       </c>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V17" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W17" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>226</v>
+        <v>25</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>360244</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18">
         <v>3438058</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18">
         <v>3548500</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1">
         <v>43675</v>
@@ -2564,60 +2228,51 @@
         <v>43675</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>233</v>
+        <v>25</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>360244</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19">
         <v>5058457</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19">
         <v>3548500</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1">
         <v>43344</v>
@@ -2626,60 +2281,51 @@
         <v>43344</v>
       </c>
       <c r="P19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V19" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W19" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>269</v>
+        <v>25</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>360244</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G20">
         <v>5077877</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20">
         <v>3548500</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1">
         <v>43906</v>
@@ -2688,60 +2334,51 @@
         <v>43906</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="s">
-        <v>26</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V20" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>240</v>
+        <v>25</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>360244</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21">
         <v>5346452</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21">
         <v>3518701</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1">
         <v>43221</v>
@@ -2750,60 +2387,51 @@
         <v>43221</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W21" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>245</v>
+        <v>25</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>360244</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22">
         <v>5551331</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22">
         <v>3531100</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1">
         <v>39326</v>
@@ -2812,60 +2440,51 @@
         <v>39326</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q22" t="s">
-        <v>26</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V22" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W22" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>219</v>
+        <v>25</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>360244</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>3685373</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23">
         <v>3518701</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1">
         <v>39479</v>
@@ -2874,60 +2493,51 @@
         <v>39479</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V23" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W23" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>262</v>
+        <v>25</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>360244</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G24">
         <v>5888883</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24">
         <v>3548500</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1">
         <v>42996</v>
@@ -2936,60 +2546,51 @@
         <v>42996</v>
       </c>
       <c r="P24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V24" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>234</v>
+        <v>25</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>360244</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25">
         <v>9476962</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25">
         <v>3550308</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1">
         <v>41367</v>
@@ -2998,60 +2599,51 @@
         <v>41367</v>
       </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="s">
-        <v>26</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="2"/>
-        <v>Erro</v>
-      </c>
-      <c r="V25" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" si="1"/>
-        <v>Erro</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>221</v>
+        <v>25</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>360244</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26">
         <v>6768431</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26">
         <v>3548500</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1">
         <v>41244</v>
@@ -3060,60 +2652,51 @@
         <v>41244</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q26" t="s">
-        <v>26</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V26" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W26" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y26" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>217</v>
+        <v>25</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>360244</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>3693457</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27">
         <v>3548500</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1">
         <v>43922</v>
@@ -3122,60 +2705,51 @@
         <v>43922</v>
       </c>
       <c r="P27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q27" t="s">
-        <v>26</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V27" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W27" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>260</v>
+        <v>25</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>360244</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28">
         <v>7883226</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28">
         <v>3548500</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1">
         <v>43313</v>
@@ -3184,60 +2758,51 @@
         <v>43313</v>
       </c>
       <c r="P28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="2"/>
-        <v>Erro</v>
-      </c>
-      <c r="V28" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W28" t="str">
-        <f t="shared" si="1"/>
-        <v>Erro</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>251</v>
+        <v>25</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>360244</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G29">
         <v>7828233</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29">
         <v>3506359</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N29" s="1">
         <v>43360</v>
@@ -3246,57 +2811,48 @@
         <v>43360</v>
       </c>
       <c r="P29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>26</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V29" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W29" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>264</v>
+        <v>25</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>360244</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G30">
         <v>7865139</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30">
         <v>3551009</v>
       </c>
       <c r="J30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" s="1">
         <v>42917</v>
@@ -3305,57 +2861,48 @@
         <v>42917</v>
       </c>
       <c r="P30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>26</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V30" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W30" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>244</v>
+        <v>25</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>360244</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31">
         <v>7894260</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31">
         <v>3518701</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" s="1">
         <v>42391</v>
@@ -3364,57 +2911,48 @@
         <v>42391</v>
       </c>
       <c r="P31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q31" t="s">
-        <v>26</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V31" t="str">
-        <f t="shared" si="0"/>
-        <v>Existente</v>
-      </c>
-      <c r="W31" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>235</v>
+        <v>25</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>360244</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32">
         <v>112852</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32">
         <v>3541000</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32" s="1">
         <v>44516</v>
@@ -3423,57 +2961,48 @@
         <v>44212</v>
       </c>
       <c r="P32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q32" t="s">
-        <v>26</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V32" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W32" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>254</v>
+        <v>25</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>360244</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G33">
         <v>7951000</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33">
         <v>3548500</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33" s="1">
         <v>42614</v>
@@ -3482,57 +3011,48 @@
         <v>42614</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q33" t="s">
-        <v>26</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V33" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W33" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>257</v>
+        <v>25</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>360244</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34">
         <v>9135154</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34">
         <v>3548500</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N34" s="1">
         <v>42842</v>
@@ -3541,57 +3061,48 @@
         <v>42842</v>
       </c>
       <c r="P34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q34" t="s">
-        <v>26</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V34" t="e">
-        <f t="shared" ref="V34:V67" si="3">IF(VLOOKUP(F34,$Y$2:$Y$28,1,0)&lt;&gt;"#N/D","Existente")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W34" t="e">
-        <f t="shared" ref="W34:W67" si="4">IF(VLOOKUP(F34,$Z$2:$Z$28,1,0)&lt;&gt;"#N/D","Erro")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>239</v>
+        <v>25</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>360244</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G35">
         <v>422134</v>
       </c>
       <c r="H35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35">
         <v>3548500</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N35" s="1">
         <v>43191</v>
@@ -3600,57 +3111,48 @@
         <v>43191</v>
       </c>
       <c r="P35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q35" t="s">
-        <v>26</v>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V35" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W35" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>265</v>
+        <v>25</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>360244</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G36">
         <v>9106898</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36">
         <v>3506359</v>
       </c>
       <c r="J36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N36" s="1">
         <v>43955</v>
@@ -3659,57 +3161,48 @@
         <v>43955</v>
       </c>
       <c r="P36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q36" t="s">
-        <v>26</v>
-      </c>
-      <c r="T36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V36" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W36" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>232</v>
+        <v>25</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>360244</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37">
         <v>394998</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37">
         <v>3548500</v>
       </c>
       <c r="J37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N37" s="1">
         <v>44440</v>
@@ -3718,57 +3211,48 @@
         <v>44440</v>
       </c>
       <c r="P37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q37" t="s">
-        <v>26</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V37" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W37" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>214</v>
+        <v>25</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>360244</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>9119191</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38">
         <v>3506359</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N38" s="1">
         <v>42917</v>
@@ -3777,57 +3261,48 @@
         <v>42917</v>
       </c>
       <c r="P38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>26</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="2"/>
-        <v>Erro</v>
-      </c>
-      <c r="V38" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W38" t="str">
-        <f t="shared" si="4"/>
-        <v>Erro</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>211</v>
+        <v>25</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>360244</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>9634266</v>
       </c>
       <c r="H39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39">
         <v>3548500</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N39" s="1">
         <v>43647</v>
@@ -3836,57 +3311,48 @@
         <v>43647</v>
       </c>
       <c r="P39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q39" t="s">
-        <v>26</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V39" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W39" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>266</v>
+        <v>25</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>360244</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G40">
         <v>7535457</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40">
         <v>3548500</v>
       </c>
       <c r="J40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N40" s="1">
         <v>44027</v>
@@ -3895,57 +3361,48 @@
         <v>44027</v>
       </c>
       <c r="P40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q40" t="s">
-        <v>26</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="2"/>
-        <v>Erro</v>
-      </c>
-      <c r="V40" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W40" t="str">
-        <f t="shared" si="4"/>
-        <v>Erro</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>247</v>
+        <v>25</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>360244</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G41">
         <v>2051370</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41">
         <v>3548500</v>
       </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N41" s="1">
         <v>41214</v>
@@ -3954,57 +3411,48 @@
         <v>41214</v>
       </c>
       <c r="P41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q41" t="s">
-        <v>26</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V41" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W41" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>236</v>
+        <v>25</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>360244</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42">
         <v>3501264</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42">
         <v>3548500</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N42" s="1">
         <v>44697</v>
@@ -4013,57 +3461,48 @@
         <v>44697</v>
       </c>
       <c r="P42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q42" t="s">
-        <v>26</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V42" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W42" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>237</v>
+        <v>25</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>360244</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43">
         <v>5360129</v>
       </c>
       <c r="H43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43">
         <v>3541000</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N43" s="1">
         <v>44697</v>
@@ -4072,57 +3511,48 @@
         <v>44697</v>
       </c>
       <c r="P43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q43" t="s">
-        <v>26</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V43" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W43" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>238</v>
+        <v>25</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>360244</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44">
         <v>5120101</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44">
         <v>3548500</v>
       </c>
       <c r="J44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N44" s="1">
         <v>44697</v>
@@ -4131,57 +3561,48 @@
         <v>44697</v>
       </c>
       <c r="P44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q44" t="s">
-        <v>26</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V44" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W44" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>222</v>
+        <v>25</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>360244</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45">
         <v>3509028</v>
       </c>
       <c r="H45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45">
         <v>3550308</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N45" s="1">
         <v>42979</v>
@@ -4190,57 +3611,48 @@
         <v>42979</v>
       </c>
       <c r="P45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>26</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V45" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W45" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>230</v>
+        <v>25</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>360244</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G46">
         <v>3323137</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46">
         <v>3548500</v>
       </c>
       <c r="J46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N46" s="1">
         <v>44378</v>
@@ -4249,57 +3661,48 @@
         <v>44378</v>
       </c>
       <c r="P46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q46" t="s">
-        <v>26</v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V46" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W46" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>218</v>
+        <v>25</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>360244</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>2698447</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47">
         <v>3548500</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47" s="1">
         <v>42948</v>
@@ -4308,57 +3711,48 @@
         <v>42948</v>
       </c>
       <c r="P47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q47" t="s">
-        <v>26</v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V47" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W47" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>225</v>
+        <v>25</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>360244</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G48">
         <v>3120988</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48">
         <v>3522109</v>
       </c>
       <c r="J48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N48" s="1">
         <v>37803</v>
@@ -4367,57 +3761,48 @@
         <v>37803</v>
       </c>
       <c r="P48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q48" t="s">
-        <v>26</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V48" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W48" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>252</v>
+        <v>25</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>360244</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G49">
         <v>3692841</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49">
         <v>3548500</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N49" s="1">
         <v>38498</v>
@@ -4426,57 +3811,48 @@
         <v>38498</v>
       </c>
       <c r="P49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q49" t="s">
-        <v>26</v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V49" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W49" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>273</v>
+        <v>25</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>360244</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50">
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G50">
         <v>3460533</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50">
         <v>3548500</v>
       </c>
       <c r="J50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N50" s="1">
         <v>38498</v>
@@ -4485,57 +3861,48 @@
         <v>38498</v>
       </c>
       <c r="P50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q50" t="s">
-        <v>26</v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V50" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W50" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>231</v>
+        <v>25</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>360244</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G51">
         <v>3130614</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51">
         <v>3537602</v>
       </c>
       <c r="J51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N51" s="1">
         <v>40878</v>
@@ -4544,57 +3911,48 @@
         <v>40878</v>
       </c>
       <c r="P51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q51" t="s">
-        <v>26</v>
-      </c>
-      <c r="T51" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V51" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W51" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>267</v>
+        <v>25</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>360244</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52">
         <v>5193397</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52">
         <v>3548500</v>
       </c>
       <c r="J52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N52" s="1">
         <v>42826</v>
@@ -4603,57 +3961,48 @@
         <v>42826</v>
       </c>
       <c r="P52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q52" t="s">
-        <v>26</v>
-      </c>
-      <c r="T52" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V52" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W52" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>242</v>
+        <v>25</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>360244</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53">
         <v>9843213</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53">
         <v>3548500</v>
       </c>
       <c r="J53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N53" s="1">
         <v>43080</v>
@@ -4662,57 +4011,48 @@
         <v>43080</v>
       </c>
       <c r="P53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q53" t="s">
-        <v>26</v>
-      </c>
-      <c r="T53" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V53" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W53" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>216</v>
+        <v>25</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>360244</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54">
         <v>3179109</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I54">
         <v>3548500</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N54" s="1">
         <v>38110</v>
@@ -4721,57 +4061,48 @@
         <v>38110</v>
       </c>
       <c r="P54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q54" t="s">
-        <v>26</v>
-      </c>
-      <c r="T54" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V54" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W54" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>261</v>
+        <v>25</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>360244</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55">
         <v>3484610</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I55">
         <v>3548500</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N55" s="1">
         <v>38498</v>
@@ -4780,57 +4111,48 @@
         <v>38498</v>
       </c>
       <c r="P55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q55" t="s">
-        <v>26</v>
-      </c>
-      <c r="T55" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V55" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W55" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>270</v>
+        <v>25</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>360244</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56">
         <v>2080354</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I56">
         <v>3548500</v>
       </c>
       <c r="J56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N56" s="1">
         <v>43586</v>
@@ -4839,57 +4161,48 @@
         <v>43586</v>
       </c>
       <c r="P56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q56" t="s">
-        <v>26</v>
-      </c>
-      <c r="T56" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V56" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W56" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>250</v>
+        <v>25</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>360244</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G57">
         <v>2025752</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I57">
         <v>3548500</v>
       </c>
       <c r="J57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N57" s="1">
         <v>39948</v>
@@ -4898,57 +4211,48 @@
         <v>39948</v>
       </c>
       <c r="P57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q57" t="s">
-        <v>26</v>
-      </c>
-      <c r="T57" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V57" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W57" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>360244</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G58">
         <v>2054213</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I58">
         <v>3548500</v>
       </c>
       <c r="J58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N58" s="1">
         <v>37256</v>
@@ -4957,57 +4261,48 @@
         <v>37256</v>
       </c>
       <c r="P58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q58" t="s">
-        <v>26</v>
-      </c>
-      <c r="T58" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V58" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>268</v>
+        <v>25</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>360244</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G59">
         <v>7069790</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I59">
         <v>3506359</v>
       </c>
       <c r="J59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N59" s="1">
         <v>41122</v>
@@ -5016,57 +4311,48 @@
         <v>41122</v>
       </c>
       <c r="P59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q59" t="s">
-        <v>26</v>
-      </c>
-      <c r="T59" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V59" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W59" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>246</v>
+        <v>25</v>
+      </c>
+      <c r="T59" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>360244</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G60">
         <v>2077590</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I60">
         <v>3550308</v>
       </c>
       <c r="J60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N60" s="1">
         <v>40909</v>
@@ -5075,57 +4361,48 @@
         <v>40909</v>
       </c>
       <c r="P60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q60" t="s">
-        <v>26</v>
-      </c>
-      <c r="T60" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="V60" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W60" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>227</v>
+        <v>25</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>360244</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61">
         <v>3595749</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I61">
         <v>3548500</v>
       </c>
       <c r="J61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N61" s="1">
         <v>38666</v>
@@ -5134,57 +4411,48 @@
         <v>38666</v>
       </c>
       <c r="P61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q61" t="s">
-        <v>26</v>
-      </c>
-      <c r="T61" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V61" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>228</v>
+        <v>25</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>360244</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62">
         <v>6481388</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I62">
         <v>3506359</v>
       </c>
       <c r="J62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N62" s="1">
         <v>38666</v>
@@ -5193,57 +4461,48 @@
         <v>38666</v>
       </c>
       <c r="P62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q62" t="s">
-        <v>26</v>
-      </c>
-      <c r="T62" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V62" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W62" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>229</v>
+        <v>25</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>360244</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G63">
         <v>8000255</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I63">
         <v>3513504</v>
       </c>
       <c r="J63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N63" s="1">
         <v>38666</v>
@@ -5252,57 +4511,48 @@
         <v>38666</v>
       </c>
       <c r="P63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q63" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>360244</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
         <v>26</v>
-      </c>
-      <c r="T63" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V63" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W63" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>209</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64" t="s">
-        <v>27</v>
       </c>
       <c r="G64">
         <v>3696677</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I64">
         <v>3548500</v>
       </c>
       <c r="J64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N64" s="1">
         <v>43710</v>
@@ -5311,57 +4561,48 @@
         <v>43710</v>
       </c>
       <c r="P64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q64" t="s">
-        <v>26</v>
-      </c>
-      <c r="T64" t="str">
-        <f t="shared" si="2"/>
-        <v>Erro</v>
-      </c>
-      <c r="V64" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W64" t="str">
-        <f t="shared" si="4"/>
-        <v>Erro</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>215</v>
+        <v>25</v>
+      </c>
+      <c r="T64" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>360244</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>3128628</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I65">
         <v>3537602</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N65" s="1">
         <v>41334</v>
@@ -5370,57 +4611,48 @@
         <v>41334</v>
       </c>
       <c r="P65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q65" t="s">
-        <v>26</v>
-      </c>
-      <c r="T65" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V65" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W65" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>243</v>
+        <v>25</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>360244</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G66">
         <v>3926788</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66">
         <v>3548500</v>
       </c>
       <c r="J66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N66" s="1">
         <v>38573</v>
@@ -5429,57 +4661,48 @@
         <v>38573</v>
       </c>
       <c r="P66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q66" t="s">
-        <v>26</v>
-      </c>
-      <c r="T66" t="str">
-        <f t="shared" si="2"/>
-        <v>Existente</v>
-      </c>
-      <c r="V66" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W66" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>224</v>
+        <v>25</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>360244</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G67">
         <v>2062305</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I67">
         <v>3506359</v>
       </c>
       <c r="J67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N67" s="1">
         <v>37165</v>
@@ -5488,50 +4711,27 @@
         <v>37165</v>
       </c>
       <c r="P67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q67" t="s">
-        <v>26</v>
-      </c>
-      <c r="T67" t="str">
-        <f t="shared" ref="T67" si="5">_xlfn.IFNA(V67,_xlfn.IFNA(W67,""))</f>
-        <v>Existente</v>
-      </c>
-      <c r="V67" t="str">
-        <f t="shared" si="3"/>
-        <v>Existente</v>
-      </c>
-      <c r="W67" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>25</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z67" xr:uid="{7EDB6F46-9F3A-4038-9054-3BC14B17DE58}">
-    <filterColumn colId="19">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y2:Y28">
-    <sortCondition ref="Y2:Y28"/>
+  <autoFilter ref="A1:W67" xr:uid="{7EDB6F46-9F3A-4038-9054-3BC14B17DE58}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V2:V28">
+    <sortCondition ref="V2:V28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F2:F67">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>V2="Existente"</formula>
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>#REF!="Existente"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>W2="Erro"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V67">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Existente"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W67">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Erro"</formula>
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>#REF!="Erro"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5543,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB0D088-4E8C-4856-A2D0-7880C7C0EABD}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5558,19 +4758,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>156</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>159</v>
-      </c>
-      <c r="E1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5578,16 +4778,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5595,16 +4795,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -5612,16 +4812,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -5629,16 +4829,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -5646,16 +4846,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5663,16 +4863,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -5680,16 +4880,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -5697,16 +4897,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -5714,16 +4914,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5731,16 +4931,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -5748,16 +4948,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
@@ -5765,16 +4965,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -5782,16 +4982,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
@@ -5799,16 +4999,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -5816,16 +5016,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5833,16 +5033,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -5850,16 +5050,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -5867,16 +5067,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -5884,16 +5084,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
